--- a/INPUTS/inputs_bernalFrame.xlsx
+++ b/INPUTS/inputs_bernalFrame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasetti-my.sharepoint.com/personal/fgalvis_thorntontomasetti_com/Documents/Documents/GitHub/ModelerWSMF/INPUTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacho\Documents\Github\ModelerWSMF\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{2C2D1D5E-D460-4231-ADFE-8A2E2C0A249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96FEB36-A82A-4322-9F8F-C2A6265B3F1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE8DE8-168B-4D1F-BA2C-4782520B18A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>storiesAboveGrade</t>
   </si>
@@ -306,13 +306,19 @@
   </si>
   <si>
     <t>Floor5</t>
+  </si>
+  <si>
+    <t>BUILT 3.75-3.75-0.12-0.18</t>
+  </si>
+  <si>
+    <t>BUILT 3.15-2.63-0.44-0.18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -348,10 +354,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,21 +677,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
-    <col min="2" max="2" width="20.41796875" customWidth="1"/>
-    <col min="3" max="3" width="21.83984375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="13.578125" customWidth="1"/>
-    <col min="7" max="7" width="18.26171875" customWidth="1"/>
-    <col min="8" max="8" width="10.578125" customWidth="1"/>
-    <col min="9" max="9" width="9.15625" customWidth="1"/>
-    <col min="10" max="10" width="13.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.578125" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>4</v>
       </c>
@@ -769,14 +774,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" customWidth="1"/>
-    <col min="2" max="2" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -787,7 +792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -798,7 +803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -809,7 +814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -820,7 +825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -844,14 +849,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="5.26171875" customWidth="1"/>
+    <col min="3" max="10" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>60</v>
       </c>
@@ -859,7 +864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -870,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -881,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -892,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -916,13 +921,13 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" customWidth="1"/>
-    <col min="2" max="11" width="11.68359375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>64</v>
       </c>
@@ -933,7 +938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -950,7 +955,7 @@
         <v>0.44092452399999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -967,7 +972,7 @@
         <v>0.330693393</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -984,7 +989,7 @@
         <v>0.330693393</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -1014,13 +1019,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1028,38 +1033,38 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <f>(1600*0.00220462262)-SUM(wgtOnCol!B2:D2)</f>
         <v>1.7636980959999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <f>(1200*0.00220462262)-SUM(wgtOnCol!B3:D3)</f>
         <v>1.322773572</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <f>(1200*0.00220462262)-SUM(wgtOnCol!B4:D4)</f>
         <v>1.322773572</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <f>(800*0.00220462262)-SUM(wgtOnCol!B5:D5)</f>
         <v>0.88184904799999997</v>
       </c>
@@ -1077,20 +1082,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1119,20 +1124,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.625</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>0.375</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
@@ -1149,19 +1154,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,13 +1173,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.578125" customWidth="1"/>
-    <col min="2" max="2" width="10.26171875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1196,7 @@
         <v>49.212598425196852</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1221,13 +1218,13 @@
       <selection activeCell="B4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" customWidth="1"/>
-    <col min="2" max="2" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1241,7 @@
         <v>35.433070866141733</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>35.433070866141733</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>35.433070866141733</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1281,19 +1278,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.578125" customWidth="1"/>
-    <col min="2" max="2" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1304,60 +1301,60 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1374,14 +1371,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.578125" customWidth="1"/>
-    <col min="2" max="10" width="5.83984375" customWidth="1"/>
-    <col min="11" max="11" width="6.83984375" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1420,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -1457,18 +1454,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" customWidth="1"/>
-    <col min="2" max="2" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.26171875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -1476,48 +1473,48 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1533,14 +1530,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.578125" customWidth="1"/>
-    <col min="2" max="10" width="5.83984375" customWidth="1"/>
-    <col min="11" max="11" width="6.83984375" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1579,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -1620,14 +1617,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" customWidth="1"/>
-    <col min="2" max="10" width="5.83984375" customWidth="1"/>
-    <col min="11" max="11" width="6.83984375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -1638,56 +1635,56 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
@@ -1707,15 +1704,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" customWidth="1"/>
-    <col min="2" max="2" width="8.41796875" customWidth="1"/>
-    <col min="3" max="3" width="10.578125" customWidth="1"/>
-    <col min="4" max="4" width="18.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>

--- a/INPUTS/inputs_bernalFrame.xlsx
+++ b/INPUTS/inputs_bernalFrame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacho\Documents\Github\ModelerWSMF\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE8DE8-168B-4D1F-BA2C-4782520B18A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A3310-8E32-49F0-B130-6A9B7E310668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
